--- a/demo/data/case/ieee123_ams_REGCV1.xlsx
+++ b/demo/data/case/ieee123_ams_REGCV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buxinshe/Documents/git-repo/andes/bshe/Base_DC_OPF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE7ADA-E9CD-EC4E-B3BE-28688B6BF266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD73C8-36F8-544F-B3DF-D7DC7FE94D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5100" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="607">
   <si>
     <t>idx</t>
   </si>
@@ -7733,9 +7733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19359,8 +19359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D71AA9-7122-4644-932B-DB8CEB0A118F}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19422,8 +19422,8 @@
       <c r="H2" t="s">
         <v>595</v>
       </c>
-      <c r="I2" t="s">
-        <v>565</v>
+      <c r="I2" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -19451,8 +19451,8 @@
       <c r="H3" t="s">
         <v>595</v>
       </c>
-      <c r="I3" t="s">
-        <v>565</v>
+      <c r="I3" s="3">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -19481,7 +19481,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
